--- a/output2/【河洛話注音】金剛般若波羅蜜經010。莊嚴淨土分第十.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經010。莊嚴淨土分第十.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E8F64FB-CCE6-432D-90BB-78E45341BDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{667956B0-C360-427F-9134-7B0444071FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="12495" windowWidth="36150" windowHeight="15585" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="390">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1304,10 +1304,6 @@
     <t>甚</t>
   </si>
   <si>
-    <t>tsong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄗㆲ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1320,14 +1316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsing7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄧㄥ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>thoo2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1352,22 +1340,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsap8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄗㄚㆴ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>put8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄨㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ko3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1400,14 +1376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>i3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1440,26 +1408,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lai0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄞ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sik4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tsai6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄗㄞˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1468,10 +1420,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆡㄧㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ting1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1496,14 +1444,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tit4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1536,10 +1476,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄗㄨㄣ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1548,10 +1484,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bo5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1584,22 +1516,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsia2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄧㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tsiah4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄧㄚㆷ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hui1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1612,10 +1528,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mia5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1656,10 +1568,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tshenn1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄘㆥ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1668,10 +1576,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㆬ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tiu7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1692,10 +1596,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>phang1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1724,10 +1624,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆡㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ki5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1744,22 +1640,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lang5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄤˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sin1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bi5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1812,15 +1696,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㆬˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>suat4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄙㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zing7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄥ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zap8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄞˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄥ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cenn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆬ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆩ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄣ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆬˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4133,25 +4141,25 @@
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="65"/>
       <c r="D4" s="98" t="s">
-        <v>258</v>
+        <v>358</v>
       </c>
       <c r="E4" s="98" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F4" s="98" t="s">
-        <v>262</v>
+        <v>359</v>
       </c>
       <c r="G4" s="98" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H4" s="98" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I4" s="98" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>270</v>
+        <v>361</v>
       </c>
       <c r="K4" s="98"/>
       <c r="L4" s="98"/>
@@ -4204,25 +4212,25 @@
       <c r="B6" s="67"/>
       <c r="C6" s="51"/>
       <c r="D6" s="100" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E6" s="100" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F6" s="100" t="s">
-        <v>263</v>
+        <v>360</v>
       </c>
       <c r="G6" s="100" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H6" s="100" t="s">
+        <v>264</v>
+      </c>
+      <c r="I6" s="100" t="s">
+        <v>266</v>
+      </c>
+      <c r="J6" s="100" t="s">
         <v>267</v>
-      </c>
-      <c r="I6" s="100" t="s">
-        <v>269</v>
-      </c>
-      <c r="J6" s="100" t="s">
-        <v>271</v>
       </c>
       <c r="K6" s="100"/>
       <c r="L6" s="100"/>
@@ -4260,43 +4268,43 @@
       <c r="B8" s="65"/>
       <c r="C8" s="52"/>
       <c r="D8" s="98" t="s">
+        <v>362</v>
+      </c>
+      <c r="E8" s="98" t="s">
+        <v>268</v>
+      </c>
+      <c r="F8" s="98" t="s">
+        <v>270</v>
+      </c>
+      <c r="G8" s="98" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="H8" s="98" t="s">
         <v>274</v>
-      </c>
-      <c r="F8" s="98" t="s">
-        <v>276</v>
-      </c>
-      <c r="G8" s="98" t="s">
-        <v>278</v>
-      </c>
-      <c r="H8" s="98" t="s">
-        <v>280</v>
       </c>
       <c r="I8" s="98"/>
       <c r="J8" s="98"/>
       <c r="K8" s="98" t="s">
-        <v>282</v>
+        <v>364</v>
       </c>
       <c r="L8" s="98" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="M8" s="98" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="N8" s="98" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="O8" s="98"/>
       <c r="P8" s="98" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="Q8" s="98" t="s">
-        <v>292</v>
+        <v>366</v>
       </c>
       <c r="R8" s="98" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="S8" s="53"/>
       <c r="V8" s="107"/>
@@ -4360,43 +4368,43 @@
       <c r="B10" s="67"/>
       <c r="C10" s="52"/>
       <c r="D10" s="100" t="s">
+        <v>363</v>
+      </c>
+      <c r="E10" s="100" t="s">
+        <v>269</v>
+      </c>
+      <c r="F10" s="100" t="s">
+        <v>271</v>
+      </c>
+      <c r="G10" s="100" t="s">
         <v>273</v>
       </c>
-      <c r="E10" s="100" t="s">
+      <c r="H10" s="100" t="s">
         <v>275</v>
-      </c>
-      <c r="F10" s="100" t="s">
-        <v>277</v>
-      </c>
-      <c r="G10" s="100" t="s">
-        <v>279</v>
-      </c>
-      <c r="H10" s="100" t="s">
-        <v>281</v>
       </c>
       <c r="I10" s="100"/>
       <c r="J10" s="100"/>
       <c r="K10" s="100" t="s">
-        <v>283</v>
+        <v>365</v>
       </c>
       <c r="L10" s="100" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="M10" s="100" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="N10" s="100" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O10" s="100"/>
       <c r="P10" s="100" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="Q10" s="100" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="R10" s="100" t="s">
-        <v>295</v>
+        <v>368</v>
       </c>
       <c r="S10" s="58"/>
       <c r="V10" s="107"/>
@@ -4426,38 +4434,38 @@
       <c r="B12" s="65"/>
       <c r="C12" s="52"/>
       <c r="D12" s="98" t="s">
-        <v>296</v>
+        <v>369</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F12" s="98" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="G12" s="98" t="s">
-        <v>272</v>
+        <v>362</v>
       </c>
       <c r="H12" s="98" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="I12" s="98"/>
       <c r="J12" s="98" t="s">
-        <v>282</v>
+        <v>364</v>
       </c>
       <c r="K12" s="98" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="L12" s="98" t="s">
-        <v>306</v>
+        <v>371</v>
       </c>
       <c r="M12" s="98" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="N12" s="98" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="O12" s="98" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="P12" s="98"/>
       <c r="Q12" s="98"/>
@@ -4523,38 +4531,38 @@
       <c r="B14" s="67"/>
       <c r="C14" s="52"/>
       <c r="D14" s="100" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="E14" s="100" t="s">
-        <v>299</v>
+        <v>370</v>
       </c>
       <c r="F14" s="100" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G14" s="100" t="s">
-        <v>273</v>
+        <v>363</v>
       </c>
       <c r="H14" s="100" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="I14" s="100"/>
       <c r="J14" s="100" t="s">
-        <v>283</v>
+        <v>365</v>
       </c>
       <c r="K14" s="100" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="L14" s="100" t="s">
-        <v>307</v>
+        <v>372</v>
       </c>
       <c r="M14" s="100" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="N14" s="100" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="O14" s="100" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="P14" s="100"/>
       <c r="Q14" s="100"/>
@@ -4587,43 +4595,43 @@
       <c r="B16" s="65"/>
       <c r="C16" s="52"/>
       <c r="D16" s="98" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="E16" s="98" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="F16" s="98"/>
       <c r="G16" s="98" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="H16" s="98" t="s">
-        <v>316</v>
+        <v>373</v>
       </c>
       <c r="I16" s="98"/>
       <c r="J16" s="98" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K16" s="98" t="s">
-        <v>292</v>
+        <v>366</v>
       </c>
       <c r="L16" s="98" t="s">
-        <v>296</v>
+        <v>369</v>
       </c>
       <c r="M16" s="98" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="N16" s="98" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="O16" s="98" t="s">
-        <v>272</v>
+        <v>362</v>
       </c>
       <c r="P16" s="98" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="Q16" s="98"/>
       <c r="R16" s="98" t="s">
-        <v>282</v>
+        <v>364</v>
       </c>
       <c r="S16" s="53"/>
       <c r="V16" s="107"/>
@@ -4686,43 +4694,43 @@
       <c r="B18" s="67"/>
       <c r="C18" s="52"/>
       <c r="D18" s="100" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="E18" s="100" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="F18" s="100"/>
       <c r="G18" s="100" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="H18" s="100" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I18" s="100"/>
       <c r="J18" s="100" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="K18" s="100" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="L18" s="100" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="M18" s="100" t="s">
-        <v>299</v>
+        <v>370</v>
       </c>
       <c r="N18" s="100" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="O18" s="100" t="s">
-        <v>273</v>
+        <v>363</v>
       </c>
       <c r="P18" s="100" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="Q18" s="100"/>
       <c r="R18" s="100" t="s">
-        <v>283</v>
+        <v>365</v>
       </c>
       <c r="S18" s="58"/>
       <c r="V18" s="107"/>
@@ -4752,19 +4760,19 @@
       <c r="B20" s="65"/>
       <c r="C20" s="52"/>
       <c r="D20" s="98" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E20" s="98" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="F20" s="98" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="G20" s="98" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="H20" s="98" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="I20" s="98"/>
       <c r="J20" s="98"/>
@@ -4821,19 +4829,19 @@
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
       <c r="D22" s="100" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="E22" s="100" t="s">
-        <v>319</v>
+        <v>374</v>
       </c>
       <c r="F22" s="100" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="G22" s="100" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="H22" s="100" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="I22" s="100"/>
       <c r="J22" s="100"/>
@@ -4874,42 +4882,42 @@
       <c r="C24" s="52"/>
       <c r="D24" s="98"/>
       <c r="E24" s="98" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F24" s="98" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G24" s="98" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H24" s="98"/>
       <c r="I24" s="98" t="s">
-        <v>282</v>
+        <v>364</v>
       </c>
       <c r="J24" s="98" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="K24" s="98" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L24" s="98" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="M24" s="98"/>
       <c r="N24" s="98" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="O24" s="98" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="P24" s="98" t="s">
-        <v>258</v>
+        <v>358</v>
       </c>
       <c r="Q24" s="98" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R24" s="98" t="s">
-        <v>272</v>
+        <v>362</v>
       </c>
       <c r="S24" s="53"/>
       <c r="V24" s="69"/>
@@ -4973,42 +4981,42 @@
       <c r="C26" s="52"/>
       <c r="D26" s="100"/>
       <c r="E26" s="100" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F26" s="100" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G26" s="100" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H26" s="100"/>
       <c r="I26" s="100" t="s">
-        <v>283</v>
+        <v>365</v>
       </c>
       <c r="J26" s="100" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="K26" s="100" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="L26" s="100" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="M26" s="100"/>
       <c r="N26" s="100" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="O26" s="100" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="P26" s="100" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q26" s="100" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R26" s="100" t="s">
-        <v>273</v>
+        <v>363</v>
       </c>
       <c r="S26" s="58"/>
       <c r="U26" s="1" t="str">
@@ -5046,36 +5054,36 @@
       <c r="B28" s="65"/>
       <c r="C28" s="52"/>
       <c r="D28" s="98" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E28" s="98" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="F28" s="98"/>
       <c r="G28" s="98"/>
       <c r="H28" s="98"/>
       <c r="I28" s="98" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="J28" s="98" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="K28" s="98"/>
       <c r="L28" s="98" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="M28" s="98" t="s">
-        <v>316</v>
+        <v>373</v>
       </c>
       <c r="N28" s="98"/>
       <c r="O28" s="98" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="P28" s="98" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="Q28" s="98" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="R28" s="98"/>
       <c r="S28" s="53"/>
@@ -5147,36 +5155,36 @@
       <c r="B30" s="67"/>
       <c r="C30" s="52"/>
       <c r="D30" s="100" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E30" s="100" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="F30" s="100"/>
       <c r="G30" s="100"/>
       <c r="H30" s="100"/>
       <c r="I30" s="100" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="J30" s="100" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="K30" s="100"/>
       <c r="L30" s="100" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="M30" s="100" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="N30" s="100"/>
       <c r="O30" s="100" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="P30" s="100" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="Q30" s="100" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="R30" s="100"/>
       <c r="S30" s="58"/>
@@ -5215,45 +5223,45 @@
       <c r="B32" s="65"/>
       <c r="C32" s="52"/>
       <c r="D32" s="98" t="s">
-        <v>258</v>
+        <v>358</v>
       </c>
       <c r="E32" s="98" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F32" s="98" t="s">
-        <v>272</v>
+        <v>362</v>
       </c>
       <c r="G32" s="98" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H32" s="98" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="I32" s="98"/>
       <c r="J32" s="98" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="K32" s="98" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L32" s="98" t="s">
-        <v>258</v>
+        <v>358</v>
       </c>
       <c r="M32" s="98" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N32" s="98"/>
       <c r="O32" s="98" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="P32" s="98" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="Q32" s="98" t="s">
-        <v>258</v>
+        <v>358</v>
       </c>
       <c r="R32" s="98" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="S32" s="53"/>
       <c r="U32" s="82" t="str">
@@ -5320,45 +5328,45 @@
       <c r="B34" s="67"/>
       <c r="C34" s="52"/>
       <c r="D34" s="100" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E34" s="100" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F34" s="100" t="s">
-        <v>273</v>
+        <v>363</v>
       </c>
       <c r="G34" s="100" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H34" s="100" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="I34" s="100"/>
       <c r="J34" s="100" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="K34" s="100" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="L34" s="100" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M34" s="100" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N34" s="100"/>
       <c r="O34" s="100" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="P34" s="100" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="Q34" s="100" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R34" s="100" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S34" s="58"/>
       <c r="V34" s="69"/>
@@ -5391,36 +5399,36 @@
       <c r="E36" s="98"/>
       <c r="F36" s="98"/>
       <c r="G36" s="98" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="H36" s="98" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="I36" s="98"/>
       <c r="J36" s="98" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="K36" s="98" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="L36" s="98" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M36" s="98"/>
       <c r="N36" s="98" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="O36" s="98" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="P36" s="98" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="Q36" s="98" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="R36" s="98" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="S36" s="53"/>
       <c r="V36" s="69"/>
@@ -5486,36 +5494,36 @@
       <c r="E38" s="100"/>
       <c r="F38" s="100"/>
       <c r="G38" s="100" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="H38" s="100" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="I38" s="100"/>
       <c r="J38" s="100" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="K38" s="100" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L38" s="100" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M38" s="100"/>
       <c r="N38" s="100" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="O38" s="100" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="P38" s="100" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="Q38" s="100" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="R38" s="100" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="S38" s="58"/>
       <c r="V38" s="69"/>
@@ -5545,45 +5553,45 @@
       <c r="B40" s="65"/>
       <c r="C40" s="52"/>
       <c r="D40" s="98" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="E40" s="98"/>
       <c r="F40" s="98" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="G40" s="98" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H40" s="98" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="I40" s="98" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="J40" s="98" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="K40" s="98" t="s">
-        <v>262</v>
+        <v>359</v>
       </c>
       <c r="L40" s="98" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="M40" s="98"/>
       <c r="N40" s="98" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="O40" s="98" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="P40" s="98" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="Q40" s="98" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="R40" s="98" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="S40" s="53"/>
       <c r="V40" s="69"/>
@@ -5646,45 +5654,45 @@
       <c r="B42" s="67"/>
       <c r="C42" s="52"/>
       <c r="D42" s="100" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="E42" s="100"/>
       <c r="F42" s="100" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="G42" s="100" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="H42" s="100" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="I42" s="100" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="J42" s="100" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="K42" s="100" t="s">
-        <v>263</v>
+        <v>360</v>
       </c>
       <c r="L42" s="100" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="M42" s="100"/>
       <c r="N42" s="100" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="O42" s="100" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="P42" s="100" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="Q42" s="100" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="R42" s="100" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="S42" s="58"/>
       <c r="V42" s="69"/>
@@ -5714,39 +5722,39 @@
       <c r="B44" s="65"/>
       <c r="C44" s="52"/>
       <c r="D44" s="98" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="E44" s="98"/>
       <c r="F44" s="98" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="G44" s="98" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="H44" s="98" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="I44" s="98" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="J44" s="98"/>
       <c r="K44" s="98" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="L44" s="98"/>
       <c r="M44" s="98" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="N44" s="98"/>
       <c r="O44" s="98" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="P44" s="98"/>
       <c r="Q44" s="98" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="R44" s="98" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="S44" s="53"/>
       <c r="V44" s="69"/>
@@ -5809,39 +5817,39 @@
       <c r="B46" s="67"/>
       <c r="C46" s="52"/>
       <c r="D46" s="100" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="E46" s="100"/>
       <c r="F46" s="100" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="G46" s="100" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="H46" s="100" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="I46" s="100" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="J46" s="100"/>
       <c r="K46" s="100" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="L46" s="100"/>
       <c r="M46" s="100" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="N46" s="100"/>
       <c r="O46" s="100" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="P46" s="100"/>
       <c r="Q46" s="100" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="R46" s="100" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="S46" s="58"/>
       <c r="V46" s="69"/>
@@ -5871,33 +5879,33 @@
       <c r="B48" s="65"/>
       <c r="C48" s="52"/>
       <c r="D48" s="98" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="E48" s="98"/>
       <c r="F48" s="98" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="G48" s="98" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="H48" s="98" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="I48" s="98" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="J48" s="98"/>
       <c r="K48" s="98" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="L48" s="98" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="M48" s="98" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="N48" s="98" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="O48" s="98"/>
       <c r="P48" s="98"/>
@@ -5958,33 +5966,33 @@
       <c r="B50" s="67"/>
       <c r="C50" s="52"/>
       <c r="D50" s="100" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="E50" s="100"/>
       <c r="F50" s="100" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="G50" s="100" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="H50" s="100" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="I50" s="100" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="J50" s="100"/>
       <c r="K50" s="100" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="L50" s="100" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="M50" s="100" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="N50" s="100" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="O50" s="100"/>
       <c r="P50" s="100"/>
@@ -6018,45 +6026,45 @@
       <c r="B52" s="65"/>
       <c r="C52" s="52"/>
       <c r="D52" s="98" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E52" s="98" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F52" s="98" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G52" s="98"/>
       <c r="H52" s="98" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="I52" s="98" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="J52" s="98" t="s">
-        <v>306</v>
+        <v>371</v>
       </c>
       <c r="K52" s="98" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="L52" s="98"/>
       <c r="M52" s="98" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="N52" s="98" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="O52" s="98" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="P52" s="98" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="Q52" s="98" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="R52" s="98" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="S52" s="53"/>
       <c r="V52" s="69"/>
@@ -6119,45 +6127,45 @@
       <c r="B54" s="67"/>
       <c r="C54" s="52"/>
       <c r="D54" s="100" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E54" s="100" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F54" s="100" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G54" s="100"/>
       <c r="H54" s="100" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="I54" s="100" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="J54" s="100" t="s">
-        <v>307</v>
+        <v>372</v>
       </c>
       <c r="K54" s="100" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="L54" s="100"/>
       <c r="M54" s="100" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="N54" s="100" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="O54" s="100" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="P54" s="100" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="Q54" s="100" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="R54" s="100" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="S54" s="58"/>
       <c r="V54" s="69"/>
@@ -6188,40 +6196,40 @@
       <c r="C56" s="52"/>
       <c r="D56" s="98"/>
       <c r="E56" s="98" t="s">
-        <v>282</v>
+        <v>364</v>
       </c>
       <c r="F56" s="98" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G56" s="98" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="H56" s="98" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="I56" s="98"/>
       <c r="J56" s="98" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="K56" s="98" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="L56" s="98" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="M56" s="98" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="N56" s="98" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="O56" s="98"/>
       <c r="P56" s="98"/>
       <c r="Q56" s="98" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="R56" s="98" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="S56" s="53"/>
       <c r="V56" s="69"/>
@@ -6285,40 +6293,40 @@
       <c r="C58" s="52"/>
       <c r="D58" s="100"/>
       <c r="E58" s="100" t="s">
-        <v>283</v>
+        <v>365</v>
       </c>
       <c r="F58" s="100" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G58" s="100" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="H58" s="100" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="I58" s="100"/>
       <c r="J58" s="100" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="K58" s="100" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="L58" s="100" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="M58" s="100" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="N58" s="100" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="O58" s="100"/>
       <c r="P58" s="100"/>
       <c r="Q58" s="100" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="R58" s="100" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="S58" s="58"/>
       <c r="V58" s="69"/>
@@ -6348,39 +6356,39 @@
       <c r="B60" s="65"/>
       <c r="C60" s="52"/>
       <c r="D60" s="98" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E60" s="98" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="F60" s="98"/>
       <c r="G60" s="98"/>
       <c r="H60" s="98" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="I60" s="98" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="J60" s="98"/>
       <c r="K60" s="98" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="L60" s="98" t="s">
-        <v>316</v>
+        <v>373</v>
       </c>
       <c r="M60" s="98"/>
       <c r="N60" s="98" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="O60" s="98" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="P60" s="98" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="Q60" s="98"/>
       <c r="R60" s="98" t="s">
-        <v>272</v>
+        <v>362</v>
       </c>
       <c r="S60" s="53"/>
       <c r="V60" s="69"/>
@@ -6443,39 +6451,39 @@
       <c r="B62" s="67"/>
       <c r="C62" s="52"/>
       <c r="D62" s="100" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E62" s="100" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="F62" s="100"/>
       <c r="G62" s="100"/>
       <c r="H62" s="100" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="I62" s="100" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="J62" s="100"/>
       <c r="K62" s="100" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="L62" s="100" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="M62" s="100"/>
       <c r="N62" s="100" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O62" s="100" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="P62" s="100" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="Q62" s="100"/>
       <c r="R62" s="100" t="s">
-        <v>273</v>
+        <v>363</v>
       </c>
       <c r="S62" s="58"/>
       <c r="V62" s="69"/>
@@ -6505,26 +6513,26 @@
       <c r="B64" s="65"/>
       <c r="C64" s="52"/>
       <c r="D64" s="98" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="E64" s="98" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="F64" s="98" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="G64" s="98"/>
       <c r="H64" s="98" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="I64" s="98" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="J64" s="98" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="K64" s="98" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="L64" s="98"/>
       <c r="M64" s="98"/>
@@ -6584,26 +6592,26 @@
       <c r="B66" s="67"/>
       <c r="C66" s="52"/>
       <c r="D66" s="100" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="E66" s="100" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="F66" s="100" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="G66" s="100"/>
       <c r="H66" s="100" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="I66" s="100" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="J66" s="100" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="K66" s="100" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="L66" s="100"/>
       <c r="M66" s="100"/>

--- a/output2/【河洛話注音】金剛般若波羅蜜經010。莊嚴淨土分第十.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經010。莊嚴淨土分第十.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{667956B0-C360-427F-9134-7B0444071FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69A63B14-C978-475F-BC52-A5501E15E173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="390">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1264,9 +1264,6 @@
     <t>應</t>
   </si>
   <si>
-    <t>清</t>
-  </si>
-  <si>
     <t>心</t>
   </si>
   <si>
@@ -1289,546 +1286,551 @@
     <t>身</t>
   </si>
   <si>
+    <t>山</t>
+  </si>
+  <si>
+    <t>王</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>甚</t>
+  </si>
+  <si>
+    <t>giam5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄧㆰˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thoo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ko3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㆦˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>un5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ju5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄞˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ting1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ia7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hui1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄇㆦˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>san1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zing7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄞˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄥ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒ一ㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄜ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㄥˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄨㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄚ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆦ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄜˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄣ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄥˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆬˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄢˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆬ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>彌</t>
-  </si>
-  <si>
-    <t>山</t>
-  </si>
-  <si>
-    <t>王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>大</t>
-  </si>
-  <si>
-    <t>甚</t>
-  </si>
-  <si>
-    <t>ㄗㆲ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>giam5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄧㆰˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thoo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㆦˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>te7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㆤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄚㆴ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ko3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄜ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄆㆦˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>the5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㆤˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>un5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ua5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄚˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ju5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆡㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄞˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ting1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㄥ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆦˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tit4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆬ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ia7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄚ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆤ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄜˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆦ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hui1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄧ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mia5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄇㄧㄚˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ta1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄚ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄇㆦˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄜ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄣ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㆥ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sim1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㄨ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siek4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siann1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phang1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄆㄤ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tak4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄚㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ji5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ki5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phi3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄆㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>san1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄢ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tua7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄨㄚ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄧㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sim6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zing7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄥ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zap8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hut8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lai5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄞˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zai6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zia2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sing1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄥ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cenn1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆬ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆩ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jin5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆬˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㄥˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tai7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄞ˫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3975,7 +3977,7 @@
   </sheetPr>
   <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -4075,9 +4077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:V166"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -4135,31 +4135,31 @@
       <c r="S3" s="73"/>
       <c r="T3" s="71"/>
       <c r="V3" s="106" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="65"/>
       <c r="D4" s="98" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="E4" s="98" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F4" s="98" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="G4" s="98" t="s">
+        <v>258</v>
+      </c>
+      <c r="H4" s="98" t="s">
+        <v>260</v>
+      </c>
+      <c r="I4" s="98" t="s">
         <v>261</v>
       </c>
-      <c r="H4" s="98" t="s">
-        <v>263</v>
-      </c>
-      <c r="I4" s="98" t="s">
-        <v>265</v>
-      </c>
       <c r="J4" s="98" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="K4" s="98"/>
       <c r="L4" s="98"/>
@@ -4186,7 +4186,7 @@
         <v>231</v>
       </c>
       <c r="G5" s="95" t="s">
-        <v>232</v>
+        <v>381</v>
       </c>
       <c r="H5" s="99" t="s">
         <v>168</v>
@@ -4212,25 +4212,25 @@
       <c r="B6" s="67"/>
       <c r="C6" s="51"/>
       <c r="D6" s="100" t="s">
-        <v>258</v>
+        <v>339</v>
       </c>
       <c r="E6" s="100" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F6" s="100" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="G6" s="100" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H6" s="100" t="s">
-        <v>264</v>
+        <v>341</v>
       </c>
       <c r="I6" s="100" t="s">
-        <v>266</v>
+        <v>342</v>
       </c>
       <c r="J6" s="100" t="s">
-        <v>267</v>
+        <v>344</v>
       </c>
       <c r="K6" s="100"/>
       <c r="L6" s="100"/>
@@ -4268,43 +4268,43 @@
       <c r="B8" s="65"/>
       <c r="C8" s="52"/>
       <c r="D8" s="98" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="E8" s="98" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F8" s="98" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G8" s="98" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="H8" s="98" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="I8" s="98"/>
       <c r="J8" s="98"/>
       <c r="K8" s="98" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="L8" s="98" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="M8" s="98" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="N8" s="98" t="s">
-        <v>280</v>
+        <v>348</v>
       </c>
       <c r="O8" s="98"/>
       <c r="P8" s="98" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="Q8" s="98" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="R8" s="98" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="S8" s="53"/>
       <c r="V8" s="107"/>
@@ -4357,7 +4357,7 @@
       <c r="Q9" s="104" t="s">
         <v>221</v>
       </c>
-      <c r="R9" s="94" t="s">
+      <c r="R9" s="104" t="s">
         <v>236</v>
       </c>
       <c r="S9" s="54"/>
@@ -4368,43 +4368,43 @@
       <c r="B10" s="67"/>
       <c r="C10" s="52"/>
       <c r="D10" s="100" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="E10" s="100" t="s">
-        <v>269</v>
+        <v>345</v>
       </c>
       <c r="F10" s="100" t="s">
-        <v>271</v>
+        <v>346</v>
       </c>
       <c r="G10" s="100" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="H10" s="100" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="I10" s="100"/>
       <c r="J10" s="100"/>
       <c r="K10" s="100" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="L10" s="100" t="s">
-        <v>277</v>
+        <v>347</v>
       </c>
       <c r="M10" s="100" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="N10" s="100" t="s">
-        <v>281</v>
+        <v>349</v>
       </c>
       <c r="O10" s="100"/>
       <c r="P10" s="100" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="100" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="R10" s="100" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="S10" s="58"/>
       <c r="V10" s="107"/>
@@ -4423,7 +4423,9 @@
       <c r="L11" s="101"/>
       <c r="M11" s="101"/>
       <c r="N11" s="103"/>
-      <c r="O11" s="103"/>
+      <c r="O11" s="103" t="s">
+        <v>380</v>
+      </c>
       <c r="P11" s="101"/>
       <c r="Q11" s="101"/>
       <c r="R11" s="101"/>
@@ -4434,38 +4436,38 @@
       <c r="B12" s="65"/>
       <c r="C12" s="52"/>
       <c r="D12" s="98" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F12" s="98" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="G12" s="98" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="H12" s="98" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="I12" s="98"/>
       <c r="J12" s="98" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="K12" s="98" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="L12" s="98" t="s">
-        <v>371</v>
+        <v>326</v>
       </c>
       <c r="M12" s="98" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="N12" s="98" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="O12" s="98" t="s">
-        <v>295</v>
+        <v>380</v>
       </c>
       <c r="P12" s="98"/>
       <c r="Q12" s="98"/>
@@ -4531,38 +4533,38 @@
       <c r="B14" s="67"/>
       <c r="C14" s="52"/>
       <c r="D14" s="100" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E14" s="100" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="F14" s="100" t="s">
-        <v>288</v>
+        <v>350</v>
       </c>
       <c r="G14" s="100" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="H14" s="100" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="I14" s="100"/>
       <c r="J14" s="100" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="K14" s="100" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="L14" s="100" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="M14" s="100" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="N14" s="100" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="O14" s="100" t="s">
-        <v>296</v>
+        <v>385</v>
       </c>
       <c r="P14" s="100"/>
       <c r="Q14" s="100"/>
@@ -4595,43 +4597,43 @@
       <c r="B16" s="65"/>
       <c r="C16" s="52"/>
       <c r="D16" s="98" t="s">
-        <v>295</v>
+        <v>351</v>
       </c>
       <c r="E16" s="98" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="F16" s="98"/>
       <c r="G16" s="98" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="H16" s="98" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="I16" s="98"/>
       <c r="J16" s="98" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="K16" s="98" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="L16" s="98" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="M16" s="98" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="N16" s="98" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="O16" s="98" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="P16" s="98" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="Q16" s="98"/>
       <c r="R16" s="98" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="S16" s="53"/>
       <c r="V16" s="107"/>
@@ -4694,43 +4696,43 @@
       <c r="B18" s="67"/>
       <c r="C18" s="52"/>
       <c r="D18" s="100" t="s">
-        <v>296</v>
+        <v>352</v>
       </c>
       <c r="E18" s="100" t="s">
-        <v>298</v>
+        <v>353</v>
       </c>
       <c r="F18" s="100"/>
       <c r="G18" s="100" t="s">
-        <v>300</v>
+        <v>354</v>
       </c>
       <c r="H18" s="100" t="s">
-        <v>301</v>
+        <v>355</v>
       </c>
       <c r="I18" s="100"/>
       <c r="J18" s="100" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="K18" s="100" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="L18" s="100" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="M18" s="100" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="N18" s="100" t="s">
-        <v>288</v>
+        <v>350</v>
       </c>
       <c r="O18" s="100" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="P18" s="100" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="Q18" s="100"/>
       <c r="R18" s="100" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="S18" s="58"/>
       <c r="V18" s="107"/>
@@ -4760,19 +4762,19 @@
       <c r="B20" s="65"/>
       <c r="C20" s="52"/>
       <c r="D20" s="98" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="E20" s="98" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="F20" s="98" t="s">
-        <v>303</v>
+        <v>356</v>
       </c>
       <c r="G20" s="98" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="H20" s="98" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="I20" s="98"/>
       <c r="J20" s="98"/>
@@ -4829,19 +4831,19 @@
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
       <c r="D22" s="100" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="E22" s="100" t="s">
-        <v>374</v>
+        <v>329</v>
       </c>
       <c r="F22" s="100" t="s">
-        <v>304</v>
+        <v>357</v>
       </c>
       <c r="G22" s="100" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="H22" s="100" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I22" s="100"/>
       <c r="J22" s="100"/>
@@ -4882,42 +4884,42 @@
       <c r="C24" s="52"/>
       <c r="D24" s="98"/>
       <c r="E24" s="98" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F24" s="98" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G24" s="98" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H24" s="98"/>
       <c r="I24" s="98" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="J24" s="98" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K24" s="98" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="L24" s="98" t="s">
-        <v>280</v>
+        <v>348</v>
       </c>
       <c r="M24" s="98"/>
       <c r="N24" s="98" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="O24" s="98" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="P24" s="98" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="Q24" s="98" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="R24" s="98" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="S24" s="53"/>
       <c r="V24" s="69"/>
@@ -4981,42 +4983,42 @@
       <c r="C26" s="52"/>
       <c r="D26" s="100"/>
       <c r="E26" s="100" t="s">
-        <v>271</v>
+        <v>346</v>
       </c>
       <c r="F26" s="100" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G26" s="100" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H26" s="100"/>
       <c r="I26" s="100" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="J26" s="100" t="s">
-        <v>277</v>
+        <v>347</v>
       </c>
       <c r="K26" s="100" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="L26" s="100" t="s">
-        <v>281</v>
+        <v>349</v>
       </c>
       <c r="M26" s="100"/>
       <c r="N26" s="100" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="O26" s="100" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="P26" s="100" t="s">
-        <v>258</v>
+        <v>339</v>
       </c>
       <c r="Q26" s="100" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="R26" s="100" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="S26" s="58"/>
       <c r="U26" s="1" t="str">
@@ -5029,7 +5031,9 @@
       <c r="B27" s="74"/>
       <c r="C27" s="80"/>
       <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
+      <c r="E27" s="101" t="s">
+        <v>380</v>
+      </c>
       <c r="F27" s="101"/>
       <c r="G27" s="101"/>
       <c r="H27" s="101"/>
@@ -5054,36 +5058,36 @@
       <c r="B28" s="65"/>
       <c r="C28" s="52"/>
       <c r="D28" s="98" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E28" s="98" t="s">
-        <v>295</v>
+        <v>380</v>
       </c>
       <c r="F28" s="98"/>
       <c r="G28" s="98"/>
       <c r="H28" s="98"/>
       <c r="I28" s="98" t="s">
-        <v>295</v>
+        <v>351</v>
       </c>
       <c r="J28" s="98" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="K28" s="98"/>
       <c r="L28" s="98" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="M28" s="98" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="N28" s="98"/>
       <c r="O28" s="98" t="s">
-        <v>280</v>
+        <v>348</v>
       </c>
       <c r="P28" s="98" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="Q28" s="98" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="R28" s="98"/>
       <c r="S28" s="53"/>
@@ -5155,36 +5159,36 @@
       <c r="B30" s="67"/>
       <c r="C30" s="52"/>
       <c r="D30" s="100" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E30" s="100" t="s">
-        <v>296</v>
+        <v>385</v>
       </c>
       <c r="F30" s="100"/>
       <c r="G30" s="100"/>
       <c r="H30" s="100"/>
       <c r="I30" s="100" t="s">
-        <v>296</v>
+        <v>352</v>
       </c>
       <c r="J30" s="100" t="s">
-        <v>298</v>
+        <v>353</v>
       </c>
       <c r="K30" s="100"/>
       <c r="L30" s="100" t="s">
-        <v>300</v>
+        <v>354</v>
       </c>
       <c r="M30" s="100" t="s">
-        <v>301</v>
+        <v>355</v>
       </c>
       <c r="N30" s="100"/>
       <c r="O30" s="100" t="s">
-        <v>281</v>
+        <v>349</v>
       </c>
       <c r="P30" s="100" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="Q30" s="100" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="R30" s="100"/>
       <c r="S30" s="58"/>
@@ -5223,45 +5227,45 @@
       <c r="B32" s="65"/>
       <c r="C32" s="52"/>
       <c r="D32" s="98" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="E32" s="98" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F32" s="98" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="G32" s="98" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H32" s="98" t="s">
-        <v>375</v>
+        <v>330</v>
       </c>
       <c r="I32" s="98"/>
       <c r="J32" s="98" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="K32" s="98" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="L32" s="98" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="M32" s="98" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="N32" s="98"/>
       <c r="O32" s="98" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="P32" s="98" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="Q32" s="98" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="R32" s="98" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="S32" s="53"/>
       <c r="U32" s="82" t="str">
@@ -5328,45 +5332,45 @@
       <c r="B34" s="67"/>
       <c r="C34" s="52"/>
       <c r="D34" s="100" t="s">
-        <v>258</v>
+        <v>339</v>
       </c>
       <c r="E34" s="100" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F34" s="100" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="G34" s="100" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H34" s="100" t="s">
-        <v>376</v>
+        <v>331</v>
       </c>
       <c r="I34" s="100"/>
       <c r="J34" s="100" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="K34" s="100" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="L34" s="100" t="s">
-        <v>258</v>
+        <v>339</v>
       </c>
       <c r="M34" s="100" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="N34" s="100"/>
       <c r="O34" s="100" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="P34" s="100" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="Q34" s="100" t="s">
-        <v>258</v>
+        <v>339</v>
       </c>
       <c r="R34" s="100" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="S34" s="58"/>
       <c r="V34" s="69"/>
@@ -5399,36 +5403,36 @@
       <c r="E36" s="98"/>
       <c r="F36" s="98"/>
       <c r="G36" s="98" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="H36" s="98" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="I36" s="98"/>
       <c r="J36" s="98" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="K36" s="98" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="L36" s="98" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M36" s="98"/>
       <c r="N36" s="98" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="O36" s="98" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="P36" s="98" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="Q36" s="98" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="R36" s="98" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="S36" s="53"/>
       <c r="V36" s="69"/>
@@ -5494,36 +5498,36 @@
       <c r="E38" s="100"/>
       <c r="F38" s="100"/>
       <c r="G38" s="100" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="H38" s="100" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="I38" s="100"/>
       <c r="J38" s="100" t="s">
-        <v>271</v>
+        <v>346</v>
       </c>
       <c r="K38" s="100" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L38" s="100" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="M38" s="100"/>
       <c r="N38" s="100" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="O38" s="100" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="P38" s="100" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="Q38" s="100" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="R38" s="100" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="S38" s="58"/>
       <c r="V38" s="69"/>
@@ -5553,45 +5557,45 @@
       <c r="B40" s="65"/>
       <c r="C40" s="52"/>
       <c r="D40" s="98" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="E40" s="98"/>
       <c r="F40" s="98" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="G40" s="98" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="H40" s="98" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="I40" s="98" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="J40" s="98" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="K40" s="98" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="L40" s="98" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="M40" s="98"/>
       <c r="N40" s="98" t="s">
-        <v>295</v>
+        <v>351</v>
       </c>
       <c r="O40" s="98" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="P40" s="98" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="Q40" s="98" t="s">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="R40" s="98" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="S40" s="53"/>
       <c r="V40" s="69"/>
@@ -5620,14 +5624,14 @@
       <c r="I41" s="99" t="s">
         <v>205</v>
       </c>
-      <c r="J41" s="99" t="s">
-        <v>246</v>
+      <c r="J41" s="94" t="s">
+        <v>382</v>
       </c>
       <c r="K41" s="99" t="s">
         <v>231</v>
       </c>
       <c r="L41" s="99" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M41" s="99" t="s">
         <v>167</v>
@@ -5639,9 +5643,9 @@
         <v>245</v>
       </c>
       <c r="P41" s="99" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q41" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q41" s="99" t="s">
         <v>207</v>
       </c>
       <c r="R41" s="99" t="s">
@@ -5654,45 +5658,45 @@
       <c r="B42" s="67"/>
       <c r="C42" s="52"/>
       <c r="D42" s="100" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E42" s="100"/>
       <c r="F42" s="100" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="G42" s="100" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="H42" s="100" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="I42" s="100" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="J42" s="100" t="s">
-        <v>324</v>
+        <v>387</v>
       </c>
       <c r="K42" s="100" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="L42" s="100" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="M42" s="100"/>
       <c r="N42" s="100" t="s">
-        <v>296</v>
+        <v>352</v>
       </c>
       <c r="O42" s="100" t="s">
+        <v>365</v>
+      </c>
+      <c r="P42" s="100" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q42" s="100" t="s">
         <v>323</v>
       </c>
-      <c r="P42" s="100" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q42" s="100" t="s">
-        <v>329</v>
-      </c>
       <c r="R42" s="100" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="S42" s="58"/>
       <c r="V42" s="69"/>
@@ -5722,39 +5726,39 @@
       <c r="B44" s="65"/>
       <c r="C44" s="52"/>
       <c r="D44" s="98" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="E44" s="98"/>
       <c r="F44" s="98" t="s">
-        <v>295</v>
+        <v>351</v>
       </c>
       <c r="G44" s="98" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="H44" s="98" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="I44" s="98" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="J44" s="98"/>
       <c r="K44" s="98" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="L44" s="98"/>
       <c r="M44" s="98" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="N44" s="98"/>
       <c r="O44" s="98" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="P44" s="98"/>
       <c r="Q44" s="98" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="R44" s="98" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="S44" s="53"/>
       <c r="V44" s="69"/>
@@ -5766,7 +5770,7 @@
       </c>
       <c r="C45" s="52"/>
       <c r="D45" s="99" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E45" s="99" t="s">
         <v>167</v>
@@ -5778,7 +5782,7 @@
         <v>245</v>
       </c>
       <c r="H45" s="99" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I45" s="99" t="s">
         <v>225</v>
@@ -5817,39 +5821,39 @@
       <c r="B46" s="67"/>
       <c r="C46" s="52"/>
       <c r="D46" s="100" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="E46" s="100"/>
       <c r="F46" s="100" t="s">
-        <v>296</v>
+        <v>352</v>
       </c>
       <c r="G46" s="100" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="H46" s="100" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="I46" s="100" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="J46" s="100"/>
       <c r="K46" s="100" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="L46" s="100"/>
       <c r="M46" s="100" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="N46" s="100"/>
       <c r="O46" s="100" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="P46" s="100"/>
       <c r="Q46" s="100" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="R46" s="100" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="S46" s="58"/>
       <c r="V46" s="69"/>
@@ -5879,33 +5883,33 @@
       <c r="B48" s="65"/>
       <c r="C48" s="52"/>
       <c r="D48" s="98" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="E48" s="98"/>
       <c r="F48" s="98" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="G48" s="98" t="s">
-        <v>303</v>
+        <v>356</v>
       </c>
       <c r="H48" s="98" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="I48" s="98" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="J48" s="98"/>
       <c r="K48" s="98" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="L48" s="98" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="M48" s="98" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="N48" s="98" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="O48" s="98"/>
       <c r="P48" s="98"/>
@@ -5921,7 +5925,7 @@
       </c>
       <c r="C49" s="52"/>
       <c r="D49" s="99" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E49" s="99" t="s">
         <v>167</v>
@@ -5936,7 +5940,7 @@
         <v>191</v>
       </c>
       <c r="I49" s="99" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J49" s="99" t="s">
         <v>167</v>
@@ -5948,10 +5952,10 @@
         <v>205</v>
       </c>
       <c r="M49" s="99" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N49" s="99" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O49" s="99" t="s">
         <v>172</v>
@@ -5966,33 +5970,33 @@
       <c r="B50" s="67"/>
       <c r="C50" s="52"/>
       <c r="D50" s="100" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="E50" s="100"/>
       <c r="F50" s="100" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="G50" s="100" t="s">
-        <v>304</v>
+        <v>357</v>
       </c>
       <c r="H50" s="100" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="I50" s="100" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="J50" s="100"/>
       <c r="K50" s="100" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="L50" s="100" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="M50" s="100" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="N50" s="100" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="O50" s="100"/>
       <c r="P50" s="100"/>
@@ -6026,45 +6030,45 @@
       <c r="B52" s="65"/>
       <c r="C52" s="52"/>
       <c r="D52" s="98" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E52" s="98" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F52" s="98" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G52" s="98"/>
       <c r="H52" s="98" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="I52" s="98" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="J52" s="98" t="s">
-        <v>371</v>
+        <v>326</v>
       </c>
       <c r="K52" s="98" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="L52" s="98"/>
       <c r="M52" s="98" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="N52" s="98" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="O52" s="98" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="P52" s="98" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="Q52" s="98" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="R52" s="98" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="S52" s="53"/>
       <c r="V52" s="69"/>
@@ -6088,7 +6092,7 @@
         <v>187</v>
       </c>
       <c r="H53" s="99" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I53" s="99" t="s">
         <v>235</v>
@@ -6103,7 +6107,7 @@
         <v>167</v>
       </c>
       <c r="M53" s="99" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N53" s="99" t="s">
         <v>235</v>
@@ -6111,14 +6115,14 @@
       <c r="O53" s="99" t="s">
         <v>183</v>
       </c>
-      <c r="P53" s="99" t="s">
+      <c r="P53" s="94" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q53" s="99" t="s">
+        <v>252</v>
+      </c>
+      <c r="R53" s="99" t="s">
         <v>253</v>
-      </c>
-      <c r="Q53" s="99" t="s">
-        <v>254</v>
-      </c>
-      <c r="R53" s="99" t="s">
-        <v>255</v>
       </c>
       <c r="S53" s="54"/>
       <c r="V53" s="69"/>
@@ -6127,45 +6131,45 @@
       <c r="B54" s="67"/>
       <c r="C54" s="52"/>
       <c r="D54" s="100" t="s">
-        <v>271</v>
+        <v>346</v>
       </c>
       <c r="E54" s="100" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F54" s="100" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G54" s="100"/>
       <c r="H54" s="100" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="I54" s="100" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="J54" s="100" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="K54" s="100" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="L54" s="100"/>
       <c r="M54" s="100" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="N54" s="100" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="O54" s="100" t="s">
-        <v>271</v>
+        <v>346</v>
       </c>
       <c r="P54" s="100" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="Q54" s="100" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="R54" s="100" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="S54" s="58"/>
       <c r="V54" s="69"/>
@@ -6183,7 +6187,9 @@
       <c r="K55" s="101"/>
       <c r="L55" s="101"/>
       <c r="M55" s="101"/>
-      <c r="N55" s="101"/>
+      <c r="N55" s="101" t="s">
+        <v>380</v>
+      </c>
       <c r="O55" s="101"/>
       <c r="P55" s="101"/>
       <c r="Q55" s="101"/>
@@ -6196,40 +6202,40 @@
       <c r="C56" s="52"/>
       <c r="D56" s="98"/>
       <c r="E56" s="98" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="F56" s="98" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G56" s="98" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="H56" s="98" t="s">
-        <v>280</v>
+        <v>348</v>
       </c>
       <c r="I56" s="98"/>
       <c r="J56" s="98" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="K56" s="98" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="L56" s="98" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="M56" s="98" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="N56" s="98" t="s">
-        <v>295</v>
+        <v>380</v>
       </c>
       <c r="O56" s="98"/>
       <c r="P56" s="98"/>
       <c r="Q56" s="98" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="R56" s="98" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="S56" s="53"/>
       <c r="V56" s="69"/>
@@ -6262,13 +6268,13 @@
         <v>170</v>
       </c>
       <c r="K57" s="99" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L57" s="99" t="s">
         <v>217</v>
       </c>
-      <c r="M57" s="99" t="s">
-        <v>256</v>
+      <c r="M57" s="94" t="s">
+        <v>384</v>
       </c>
       <c r="N57" s="99" t="s">
         <v>218</v>
@@ -6293,40 +6299,40 @@
       <c r="C58" s="52"/>
       <c r="D58" s="100"/>
       <c r="E58" s="100" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="F58" s="100" t="s">
-        <v>277</v>
+        <v>347</v>
       </c>
       <c r="G58" s="100" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="H58" s="100" t="s">
-        <v>281</v>
+        <v>349</v>
       </c>
       <c r="I58" s="100"/>
       <c r="J58" s="100" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="K58" s="100" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="L58" s="100" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="M58" s="100" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="N58" s="100" t="s">
-        <v>296</v>
+        <v>385</v>
       </c>
       <c r="O58" s="100"/>
       <c r="P58" s="100"/>
       <c r="Q58" s="100" t="s">
-        <v>271</v>
+        <v>346</v>
       </c>
       <c r="R58" s="100" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="S58" s="58"/>
       <c r="V58" s="69"/>
@@ -6356,39 +6362,39 @@
       <c r="B60" s="65"/>
       <c r="C60" s="52"/>
       <c r="D60" s="98" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E60" s="98" t="s">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="F60" s="98"/>
       <c r="G60" s="98"/>
       <c r="H60" s="98" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="I60" s="98" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="J60" s="98"/>
       <c r="K60" s="98" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="L60" s="98" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="M60" s="98"/>
       <c r="N60" s="98" t="s">
-        <v>280</v>
+        <v>348</v>
       </c>
       <c r="O60" s="98" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="P60" s="98" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="Q60" s="98"/>
       <c r="R60" s="98" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="S60" s="53"/>
       <c r="V60" s="69"/>
@@ -6412,10 +6418,10 @@
         <v>186</v>
       </c>
       <c r="H61" s="99" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I61" s="99" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J61" s="99" t="s">
         <v>172</v>
@@ -6451,39 +6457,39 @@
       <c r="B62" s="67"/>
       <c r="C62" s="52"/>
       <c r="D62" s="100" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E62" s="100" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="F62" s="100"/>
       <c r="G62" s="100"/>
       <c r="H62" s="100" t="s">
+        <v>379</v>
+      </c>
+      <c r="I62" s="100" t="s">
         <v>389</v>
-      </c>
-      <c r="I62" s="100" t="s">
-        <v>352</v>
       </c>
       <c r="J62" s="100"/>
       <c r="K62" s="100" t="s">
-        <v>300</v>
+        <v>354</v>
       </c>
       <c r="L62" s="100" t="s">
-        <v>301</v>
+        <v>355</v>
       </c>
       <c r="M62" s="100"/>
       <c r="N62" s="100" t="s">
-        <v>281</v>
+        <v>349</v>
       </c>
       <c r="O62" s="100" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="P62" s="100" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="Q62" s="100"/>
       <c r="R62" s="100" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="S62" s="58"/>
       <c r="V62" s="69"/>
@@ -6513,26 +6519,26 @@
       <c r="B64" s="65"/>
       <c r="C64" s="52"/>
       <c r="D64" s="98" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="E64" s="98" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="F64" s="98" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="G64" s="98"/>
       <c r="H64" s="98" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="I64" s="98" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="J64" s="98" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="K64" s="98" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="L64" s="98"/>
       <c r="M64" s="98"/>
@@ -6557,7 +6563,7 @@
         <v>241</v>
       </c>
       <c r="F65" s="99" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G65" s="99" t="s">
         <v>167</v>
@@ -6569,10 +6575,10 @@
         <v>224</v>
       </c>
       <c r="J65" s="99" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K65" s="99" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L65" s="99" t="s">
         <v>172</v>
@@ -6592,26 +6598,26 @@
       <c r="B66" s="67"/>
       <c r="C66" s="52"/>
       <c r="D66" s="100" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="E66" s="100" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="F66" s="100" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="G66" s="100"/>
       <c r="H66" s="100" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="I66" s="100" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="J66" s="100" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="K66" s="100" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="L66" s="100"/>
       <c r="M66" s="100"/>

--- a/output2/【河洛話注音】金剛般若波羅蜜經010。莊嚴淨土分第十.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經010。莊嚴淨土分第十.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69A63B14-C978-475F-BC52-A5501E15E173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46EAF6DE-F115-4C10-A9BB-7E751A8A52DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -4077,7 +4077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:V166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
